--- a/document/설계/PetSisters_기능명세서.xlsx
+++ b/document/설계/PetSisters_기능명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01ada7956dab9dc2/KH/03_프로젝트/02_Final Project/PetSisters/document/설계/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1242" documentId="8_{6A55F136-9A1F-4B56-A204-200350C95E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65A79278-0453-44DA-9951-FF4696E5C490}"/>
+  <xr:revisionPtr revIDLastSave="1248" documentId="8_{6A55F136-9A1F-4B56-A204-200350C95E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1789C323-3299-4456-B78E-921AFD49FA1E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{3C53801A-47A0-449C-9B40-A808E8CDDA05}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3C53801A-47A0-449C-9B40-A808E8CDDA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
@@ -78,11 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인
-(정석대로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내 예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중예약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +295,6 @@
   </si>
   <si>
     <t>조회, 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -358,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>후기 (답글/조회/작성/수정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>답변달기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,10 +382,6 @@
   </si>
   <si>
     <t>이메일로 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펫시터프로필</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,6 +392,29 @@
   <si>
     <t>펫시터프로필
 목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기 (답글/조회/수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원
+(로그인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원
+(마이페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫시터프로필
+수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,6 +678,87 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -689,87 +772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,10 +799,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1103,32 +1101,32 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="1" max="1" width="8.58203125" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.58203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="30" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="8.625" style="1"/>
-    <col min="17" max="17" width="54.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="27.625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.625" style="1"/>
+    <col min="11" max="11" width="4.08203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.58203125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.58203125" style="1"/>
+    <col min="17" max="17" width="54.08203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="27.58203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,26 +1134,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="L2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="P2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1163,24 +1161,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
       <c r="P3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1188,526 +1186,545 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="41" t="s">
+      <c r="F4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="I4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="J4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="M4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="N4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="49" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="30"/>
+      <c r="C12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="30"/>
+      <c r="M12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="L14" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="C15" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="6" t="s">
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="39"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40" t="s">
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="49"/>
+      <c r="C20" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
-      <c r="C12" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="L14" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="31"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="3" t="s">
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H23" s="45"/>
+      <c r="I23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="2" t="s">
+      <c r="J23" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="50"/>
-      <c r="I23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="M23"/>
     </row>
-    <row r="24" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
       <c r="E27"/>
       <c r="F27"/>
       <c r="N27"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="L14:L20"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I22"/>
     <mergeCell ref="E12:E19"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="L2:N3"/>
@@ -1724,25 +1741,6 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H11"/>
     <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="L14:L20"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/설계/PetSisters_기능명세서.xlsx
+++ b/document/설계/PetSisters_기능명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01ada7956dab9dc2/KH/03_프로젝트/02_Final Project/PetSisters/document/설계/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01ada7956dab9dc2/KH/03_Project/02_Final Project/PetSisters/document/설계/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1248" documentId="8_{6A55F136-9A1F-4B56-A204-200350C95E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1789C323-3299-4456-B78E-921AFD49FA1E}"/>
+  <xr:revisionPtr revIDLastSave="1260" documentId="8_{6A55F136-9A1F-4B56-A204-200350C95E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFAE560C-8203-4107-BD08-34A03CCACFB3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3C53801A-47A0-449C-9B40-A808E8CDDA05}"/>
+    <workbookView xWindow="4350" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3C53801A-47A0-449C-9B40-A808E8CDDA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>세미 때 한거</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +678,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,6 +709,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,15 +750,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,42 +769,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,6 +796,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,7 +1102,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="L6" sqref="L6:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1138,22 +1139,22 @@
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="L2" s="22" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
       <c r="P2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1165,20 +1166,20 @@
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
       <c r="P3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1190,35 +1191,35 @@
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="45" t="s">
         <v>89</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="42" t="s">
         <v>87</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="44" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N4" s="4" t="s">
@@ -1235,27 +1236,27 @@
       <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="33"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
       <c r="N5" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>9</v>
@@ -1268,29 +1269,33 @@
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="28" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="42" t="s">
         <v>86</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="33"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="4" t="s">
-        <v>31</v>
+      <c r="L6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -1303,29 +1308,27 @@
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="33"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>37</v>
+      <c r="L7" s="22"/>
+      <c r="M7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>20</v>
@@ -1335,344 +1338,334 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="33"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="23"/>
-      <c r="M8" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="M8" s="23"/>
       <c r="N8" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="33"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="4"/>
+      <c r="L9" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="33"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="4" t="s">
-        <v>31</v>
+      <c r="L10" s="25"/>
+      <c r="M10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="33"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="29" t="s">
-        <v>51</v>
-      </c>
+      <c r="L11" s="26"/>
       <c r="M11" s="5" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="30"/>
-      <c r="C12" s="29" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="24" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="27" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>15</v>
+      <c r="L12" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>57</v>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-      <c r="L14" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>63</v>
-      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="30" t="s">
         <v>92</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="27" t="s">
+        <v>74</v>
+      </c>
       <c r="N15" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="46" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="39" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41" t="s">
-        <v>74</v>
-      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="39"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="30"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="2" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="20" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="49"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="35" t="s">
         <v>82</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="2" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="21" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="7" t="s">
         <v>44</v>
       </c>
       <c r="M22"/>
     </row>
     <row r="23" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H23" s="45"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="5" t="s">
         <v>79</v>
       </c>
@@ -1706,6 +1699,33 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="I4:I11"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I22"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C20:C22"/>
@@ -1714,33 +1734,6 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B15:B22"/>
     <mergeCell ref="C15:C19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="L14:L20"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L2:N3"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="I4:I11"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="H13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
